--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazee\سطح المكتب\VCS\PythonDev\SIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BEEAAD-3E7B-4C01-85F0-88A0411B6B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13FF954-2CC6-4CE3-941A-6E6C2681EF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6022204E-9186-4E41-96ED-C981BB238315}"/>
   </bookViews>
@@ -110,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -453,7 +452,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -465,7 +464,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -482,8 +481,8 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.76</v>
+      <c r="C2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -493,8 +492,8 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.88</v>
+      <c r="C3">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -504,8 +503,8 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.2</v>
+      <c r="C4">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,107 +514,107 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.13</v>
+      <c r="C5">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.79</v>
+      <c r="C6">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.03</v>
+      <c r="C7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.56000000000000005</v>
+      <c r="C8">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.48</v>
+      <c r="C9">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.02</v>
+      <c r="C10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.5</v>
+      <c r="C11">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.77</v>
+      <c r="C12">
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.63</v>
+      <c r="C13">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.25</v>
+      <c r="C14">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
